--- a/Notice_export_ref.xlsx
+++ b/Notice_export_ref.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk69074\Projet python\depot_github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43DEECAB-2656-4460-8639-B373FE810E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F2722B8-14AC-4826-940F-F282818A0547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="51">
   <si>
     <t>Cat_naturaliste</t>
   </si>
@@ -171,6 +171,15 @@
   </si>
   <si>
     <t>Statuts Listes rouges UICN + Interprétation SEAP à partir de l'écologie des espèces</t>
+  </si>
+  <si>
+    <t>****************************************************************************************************************************************</t>
+  </si>
+  <si>
+    <t>******************************************</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
 </sst>
 </file>
@@ -520,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,182 +542,202 @@
     <col min="3" max="3" width="44.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>18</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>37</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>38</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>26</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>44</v>
-      </c>
-      <c r="C10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>43</v>
       </c>
       <c r="C11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>40</v>
-      </c>
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>29</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>31</v>
+      <c r="C16" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
         <v>24</v>
@@ -716,10 +745,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
         <v>24</v>
@@ -727,10 +756,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
         <v>24</v>
@@ -738,31 +767,42 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>46</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>47</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A6:A7">
+  <conditionalFormatting sqref="A7:A8">
     <cfRule type="duplicateValues" dxfId="1" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A15">
+  <conditionalFormatting sqref="A16">
     <cfRule type="duplicateValues" dxfId="0" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
